--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsi97711\Desktop\bs2.cx.portalconsultor.automacao.ui\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bsi97711\Desktop\Desafio Automação V2\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>Company</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Texto</t>
   </si>
   <si>
-    <t>Thank you for your message.</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>Last name can't be blank</t>
-  </si>
-  <si>
-    <t>First name can't be blank</t>
   </si>
   <si>
     <t>abd1254de45</t>
@@ -305,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -316,9 +310,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -651,11 +642,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -830,280 +819,220 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>31998745214</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D6" r:id="rId3"/>
     <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="12"/>
-    <col min="6" max="6" width="21" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="13"/>
+      <c r="C5" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="19" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="B5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="17">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="18">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1116,72 +1045,72 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="12">
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>3</v>
       </c>
     </row>
